--- a/Test Design Specifications/User_sends_message_to_nanny_TDS.xlsx
+++ b/Test Design Specifications/User_sends_message_to_nanny_TDS.xlsx
@@ -146,14 +146,22 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,12 +176,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +570,7 @@
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -583,7 +594,7 @@
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -607,7 +618,7 @@
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -645,7 +656,7 @@
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -669,7 +680,7 @@
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -693,7 +704,7 @@
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -717,7 +728,7 @@
       <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
